--- a/data/output/FV2504_FV2410/ORDERS/17003.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="340">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="340">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1208,6 +1208,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U179" totalsRowShown="0">
+  <autoFilter ref="A1:U179"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1497,7 +1527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8901,5 +8934,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17003.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="516">
   <si>
     <t>#</t>
   </si>
@@ -5057,46 +5057,44 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M59" s="5" t="s">
+      <c r="L59" s="4"/>
+      <c r="M59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V59" s="5" t="s">
+      <c r="V59" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5269,46 +5267,44 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="L63" s="4"/>
+      <c r="M63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="V63" s="5" t="s">
+      <c r="V63" s="2" t="s">
         <v>262</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/ORDERS/17003.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17003.xlsx
@@ -1720,7 +1720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1746,7 +1746,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,7 +2199,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2557,7 +2563,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2705,7 +2711,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2909,7 +2915,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3107,7 +3113,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3313,7 +3319,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3679,7 +3685,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3853,52 +3859,52 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P35" s="5"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V35" s="5"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -4255,7 +4261,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4617,7 +4623,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4914,19 +4920,19 @@
       <c r="M55" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N55" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9" t="s">
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="V55" s="9" t="s">
+      <c r="V55" s="10" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4947,26 +4953,26 @@
       <c r="L56" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="O56" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9" t="s">
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9" t="s">
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V56" s="9"/>
+      <c r="V56" s="10"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4985,32 +4991,32 @@
       <c r="L57" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O57" s="9" t="s">
+      <c r="O57" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9" t="s">
+      <c r="S57" s="10"/>
+      <c r="T57" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="U57" s="9" t="s">
+      <c r="U57" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V57" s="9"/>
+      <c r="V57" s="10"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -5029,30 +5035,30 @@
       <c r="L58" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O58" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9" t="s">
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="U58" s="9" t="s">
+      <c r="U58" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="V58" s="9" t="s">
+      <c r="V58" s="10" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5079,7 +5085,7 @@
         <v>260</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5289,7 +5295,7 @@
         <v>262</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5480,25 +5486,25 @@
       <c r="A67" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M67" s="5"/>
@@ -5516,27 +5522,27 @@
       <c r="A68" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10" t="s">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11" t="s">
+      <c r="K68" s="12"/>
+      <c r="L68" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M68" s="5"/>
@@ -5554,33 +5560,33 @@
       <c r="A69" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10" t="s">
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M69" s="5"/>
@@ -5598,31 +5604,31 @@
       <c r="A70" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11" t="s">
+      <c r="K70" s="12"/>
+      <c r="L70" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M70" s="5"/>
@@ -5640,27 +5646,27 @@
       <c r="A71" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="s">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10" t="s">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11" t="s">
+      <c r="K71" s="12"/>
+      <c r="L71" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M71" s="5"/>
@@ -5678,29 +5684,29 @@
       <c r="A72" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10" t="s">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11" t="s">
+      <c r="K72" s="12"/>
+      <c r="L72" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M72" s="5"/>
@@ -5718,33 +5724,33 @@
       <c r="A73" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10" t="s">
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M73" s="5"/>
@@ -5762,33 +5768,33 @@
       <c r="A74" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10" t="s">
+      <c r="H74" s="12"/>
+      <c r="I74" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11" t="s">
+      <c r="K74" s="12"/>
+      <c r="L74" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M74" s="5"/>
@@ -5806,25 +5812,25 @@
       <c r="A75" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10" t="s">
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M75" s="5"/>
@@ -5842,27 +5848,27 @@
       <c r="A76" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10" t="s">
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="11" t="s">
+      <c r="K76" s="12"/>
+      <c r="L76" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M76" s="5"/>
@@ -5880,31 +5886,31 @@
       <c r="A77" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10" t="s">
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="11" t="s">
+      <c r="K77" s="12"/>
+      <c r="L77" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M77" s="5"/>
@@ -5922,27 +5928,27 @@
       <c r="A78" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10" t="s">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10" t="s">
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K78" s="10"/>
-      <c r="L78" s="11" t="s">
+      <c r="K78" s="12"/>
+      <c r="L78" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M78" s="5"/>
@@ -5960,33 +5966,33 @@
       <c r="A79" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10" t="s">
+      <c r="H79" s="12"/>
+      <c r="I79" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="11" t="s">
+      <c r="K79" s="12"/>
+      <c r="L79" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M79" s="5"/>
@@ -6004,33 +6010,33 @@
       <c r="A80" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10" t="s">
+      <c r="H80" s="12"/>
+      <c r="I80" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K80" s="10"/>
-      <c r="L80" s="11" t="s">
+      <c r="K80" s="12"/>
+      <c r="L80" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M80" s="5"/>
@@ -6048,31 +6054,31 @@
       <c r="A81" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10" t="s">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10" t="s">
+      <c r="H81" s="12"/>
+      <c r="I81" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11" t="s">
+      <c r="K81" s="12"/>
+      <c r="L81" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M81" s="5"/>
@@ -6090,27 +6096,27 @@
       <c r="A82" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10" t="s">
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K82" s="10"/>
-      <c r="L82" s="11" t="s">
+      <c r="K82" s="12"/>
+      <c r="L82" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M82" s="5"/>
@@ -6128,33 +6134,33 @@
       <c r="A83" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10" t="s">
+      <c r="H83" s="12"/>
+      <c r="I83" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K83" s="10"/>
-      <c r="L83" s="11" t="s">
+      <c r="K83" s="12"/>
+      <c r="L83" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M83" s="5"/>
@@ -6172,33 +6178,33 @@
       <c r="A84" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10" t="s">
+      <c r="H84" s="12"/>
+      <c r="I84" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J84" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="11" t="s">
+      <c r="K84" s="12"/>
+      <c r="L84" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M84" s="5"/>
@@ -6216,31 +6222,31 @@
       <c r="A85" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10" t="s">
+      <c r="H85" s="12"/>
+      <c r="I85" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="11" t="s">
+      <c r="K85" s="12"/>
+      <c r="L85" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M85" s="5"/>
@@ -6258,25 +6264,25 @@
       <c r="A86" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10" t="s">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M86" s="5"/>
@@ -6294,27 +6300,27 @@
       <c r="A87" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10" t="s">
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="11" t="s">
+      <c r="K87" s="12"/>
+      <c r="L87" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M87" s="5"/>
@@ -6332,31 +6338,31 @@
       <c r="A88" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10" t="s">
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="11" t="s">
+      <c r="K88" s="12"/>
+      <c r="L88" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M88" s="5"/>
@@ -6374,33 +6380,33 @@
       <c r="A89" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10" t="s">
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M89" s="5"/>
@@ -6418,25 +6424,25 @@
       <c r="A90" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10" t="s">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L90" s="11" t="s">
+      <c r="L90" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M90" s="5"/>
@@ -6454,27 +6460,27 @@
       <c r="A91" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
+      <c r="E91" s="12"/>
+      <c r="F91" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10" t="s">
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="11" t="s">
+      <c r="K91" s="12"/>
+      <c r="L91" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M91" s="5"/>
@@ -6492,33 +6498,33 @@
       <c r="A92" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10" t="s">
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M92" s="5"/>
@@ -6536,31 +6542,31 @@
       <c r="A93" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10" t="s">
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="K93" s="10"/>
-      <c r="L93" s="11" t="s">
+      <c r="K93" s="12"/>
+      <c r="L93" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M93" s="5"/>
@@ -6578,27 +6584,27 @@
       <c r="A94" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
+      <c r="E94" s="12"/>
+      <c r="F94" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10" t="s">
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="11" t="s">
+      <c r="K94" s="12"/>
+      <c r="L94" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M94" s="5"/>
@@ -6616,29 +6622,29 @@
       <c r="A95" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10" t="s">
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K95" s="10"/>
-      <c r="L95" s="11" t="s">
+      <c r="K95" s="12"/>
+      <c r="L95" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M95" s="5"/>
@@ -6656,33 +6662,33 @@
       <c r="A96" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10" t="s">
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="L96" s="11" t="s">
+      <c r="L96" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M96" s="5"/>
@@ -6700,33 +6706,33 @@
       <c r="A97" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10" t="s">
+      <c r="H97" s="12"/>
+      <c r="I97" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K97" s="10"/>
-      <c r="L97" s="11" t="s">
+      <c r="K97" s="12"/>
+      <c r="L97" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M97" s="5"/>
@@ -6744,23 +6750,23 @@
       <c r="A98" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10" t="s">
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="11" t="s">
+      <c r="K98" s="12"/>
+      <c r="L98" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M98" s="5"/>
@@ -6778,27 +6784,27 @@
       <c r="A99" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
+      <c r="E99" s="12"/>
+      <c r="F99" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10" t="s">
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K99" s="10"/>
-      <c r="L99" s="11" t="s">
+      <c r="K99" s="12"/>
+      <c r="L99" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M99" s="5"/>
@@ -6816,31 +6822,31 @@
       <c r="A100" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10" t="s">
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="K100" s="10"/>
-      <c r="L100" s="11" t="s">
+      <c r="K100" s="12"/>
+      <c r="L100" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M100" s="5"/>
@@ -6858,31 +6864,31 @@
       <c r="A101" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10" t="s">
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K101" s="10"/>
-      <c r="L101" s="11" t="s">
+      <c r="K101" s="12"/>
+      <c r="L101" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M101" s="5"/>
@@ -6900,25 +6906,25 @@
       <c r="A102" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10" t="s">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="L102" s="11" t="s">
+      <c r="L102" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M102" s="5"/>
@@ -6936,27 +6942,27 @@
       <c r="A103" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="s">
+      <c r="E103" s="12"/>
+      <c r="F103" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10" t="s">
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="11" t="s">
+      <c r="K103" s="12"/>
+      <c r="L103" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M103" s="5"/>
@@ -6974,33 +6980,33 @@
       <c r="A104" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10" t="s">
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J104" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M104" s="5"/>
@@ -7018,31 +7024,31 @@
       <c r="A105" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10" t="s">
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K105" s="10"/>
-      <c r="L105" s="11" t="s">
+      <c r="K105" s="12"/>
+      <c r="L105" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M105" s="5"/>
@@ -7060,27 +7066,27 @@
       <c r="A106" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10" t="s">
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K106" s="10"/>
-      <c r="L106" s="11" t="s">
+      <c r="K106" s="12"/>
+      <c r="L106" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M106" s="5"/>
@@ -7098,29 +7104,29 @@
       <c r="A107" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10" t="s">
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="11" t="s">
+      <c r="K107" s="12"/>
+      <c r="L107" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M107" s="5"/>
@@ -7138,33 +7144,33 @@
       <c r="A108" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10" t="s">
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L108" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M108" s="5"/>
@@ -7182,33 +7188,33 @@
       <c r="A109" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F109" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10" t="s">
+      <c r="H109" s="12"/>
+      <c r="I109" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K109" s="10"/>
-      <c r="L109" s="11" t="s">
+      <c r="K109" s="12"/>
+      <c r="L109" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M109" s="5"/>
@@ -7226,23 +7232,23 @@
       <c r="A110" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10" t="s">
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="11" t="s">
+      <c r="K110" s="12"/>
+      <c r="L110" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M110" s="5"/>
@@ -7260,27 +7266,27 @@
       <c r="A111" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10" t="s">
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K111" s="10"/>
-      <c r="L111" s="11" t="s">
+      <c r="K111" s="12"/>
+      <c r="L111" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M111" s="5"/>
@@ -7298,31 +7304,31 @@
       <c r="A112" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="F112" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10" t="s">
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="K112" s="10"/>
-      <c r="L112" s="11" t="s">
+      <c r="K112" s="12"/>
+      <c r="L112" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M112" s="5"/>
@@ -7340,31 +7346,31 @@
       <c r="A113" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F113" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10" t="s">
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K113" s="10"/>
-      <c r="L113" s="11" t="s">
+      <c r="K113" s="12"/>
+      <c r="L113" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M113" s="5"/>
@@ -7382,25 +7388,25 @@
       <c r="A114" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10" t="s">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K114" s="10" t="s">
+      <c r="K114" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L114" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M114" s="5"/>
@@ -7418,27 +7424,27 @@
       <c r="A115" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10" t="s">
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K115" s="10"/>
-      <c r="L115" s="11" t="s">
+      <c r="K115" s="12"/>
+      <c r="L115" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M115" s="5"/>
@@ -7456,33 +7462,33 @@
       <c r="A116" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="10" t="s">
+      <c r="F116" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10" t="s">
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L116" s="11" t="s">
+      <c r="L116" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M116" s="5"/>
@@ -7500,31 +7506,31 @@
       <c r="A117" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F117" s="10" t="s">
+      <c r="F117" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10" t="s">
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="K117" s="10"/>
-      <c r="L117" s="11" t="s">
+      <c r="K117" s="12"/>
+      <c r="L117" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M117" s="5"/>
@@ -7542,27 +7548,27 @@
       <c r="A118" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10" t="s">
+      <c r="E118" s="12"/>
+      <c r="F118" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10" t="s">
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="11" t="s">
+      <c r="K118" s="12"/>
+      <c r="L118" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M118" s="5"/>
@@ -7580,29 +7586,29 @@
       <c r="A119" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10" t="s">
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K119" s="10"/>
-      <c r="L119" s="11" t="s">
+      <c r="K119" s="12"/>
+      <c r="L119" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M119" s="5"/>
@@ -7620,33 +7626,33 @@
       <c r="A120" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10" t="s">
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K120" s="10" t="s">
+      <c r="K120" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M120" s="5"/>
@@ -7664,33 +7670,33 @@
       <c r="A121" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10" t="s">
+      <c r="H121" s="12"/>
+      <c r="I121" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J121" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11" t="s">
+      <c r="K121" s="12"/>
+      <c r="L121" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M121" s="5"/>
@@ -7708,29 +7714,29 @@
       <c r="A122" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10" t="s">
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K122" s="10" t="s">
+      <c r="K122" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="L122" s="11" t="s">
+      <c r="L122" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M122" s="5"/>
@@ -7748,29 +7754,29 @@
       <c r="A123" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10" t="s">
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="K123" s="10"/>
-      <c r="L123" s="11" t="s">
+      <c r="K123" s="12"/>
+      <c r="L123" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M123" s="5"/>
@@ -7788,31 +7794,31 @@
       <c r="A124" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10" t="s">
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="J124" s="10" t="s">
+      <c r="J124" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K124" s="10"/>
-      <c r="L124" s="11" t="s">
+      <c r="K124" s="12"/>
+      <c r="L124" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M124" s="5"/>
@@ -7830,29 +7836,29 @@
       <c r="A125" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10" t="s">
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K125" s="10" t="s">
+      <c r="K125" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="L125" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M125" s="5"/>
@@ -7870,29 +7876,29 @@
       <c r="A126" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10" t="s">
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K126" s="10"/>
-      <c r="L126" s="11" t="s">
+      <c r="K126" s="12"/>
+      <c r="L126" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M126" s="5"/>
@@ -7910,33 +7916,33 @@
       <c r="A127" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10" t="s">
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J127" s="10" t="s">
+      <c r="J127" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K127" s="10" t="s">
+      <c r="K127" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="L127" s="11" t="s">
+      <c r="L127" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M127" s="5"/>
@@ -7954,29 +7960,29 @@
       <c r="A128" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10" t="s">
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K128" s="10" t="s">
+      <c r="K128" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="L128" s="11" t="s">
+      <c r="L128" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M128" s="5"/>
@@ -7994,29 +8000,29 @@
       <c r="A129" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10" t="s">
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="K129" s="10"/>
-      <c r="L129" s="11" t="s">
+      <c r="K129" s="12"/>
+      <c r="L129" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M129" s="5"/>
@@ -8034,33 +8040,33 @@
       <c r="A130" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10" t="s">
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K130" s="10" t="s">
+      <c r="K130" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="L130" s="11" t="s">
+      <c r="L130" s="13" t="s">
         <v>280</v>
       </c>
       <c r="M130" s="5"/>
@@ -8094,19 +8100,19 @@
       <c r="M131" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="N131" s="9" t="s">
+      <c r="N131" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9" t="s">
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="V131" s="9" t="s">
+      <c r="V131" s="10" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8127,26 +8133,26 @@
       <c r="L132" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M132" s="9" t="s">
+      <c r="M132" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="N132" s="9" t="s">
+      <c r="N132" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O132" s="9" t="s">
+      <c r="O132" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9" t="s">
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9" t="s">
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V132" s="9"/>
+      <c r="V132" s="10"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8165,28 +8171,28 @@
       <c r="L133" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M133" s="9" t="s">
+      <c r="M133" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="N133" s="9" t="s">
+      <c r="N133" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O133" s="9" t="s">
+      <c r="O133" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P133" s="9" t="s">
+      <c r="P133" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q133" s="9" t="s">
+      <c r="Q133" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9" t="s">
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="V133" s="9"/>
+      <c r="V133" s="10"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="5" t="s">
@@ -8208,19 +8214,19 @@
       <c r="M134" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="N134" s="9" t="s">
+      <c r="N134" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9" t="s">
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V134" s="9"/>
+      <c r="V134" s="10"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -8239,26 +8245,26 @@
       <c r="L135" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M135" s="9" t="s">
+      <c r="M135" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="N135" s="9" t="s">
+      <c r="N135" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O135" s="9" t="s">
+      <c r="O135" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9" t="s">
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9" t="s">
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V135" s="9"/>
+      <c r="V135" s="10"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8277,28 +8283,28 @@
       <c r="L136" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="M136" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="N136" s="9" t="s">
+      <c r="N136" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="O136" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="P136" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q136" s="9" t="s">
+      <c r="Q136" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9" t="s">
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="V136" s="9"/>
+      <c r="V136" s="10"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="5" t="s">
@@ -8317,30 +8323,30 @@
       <c r="L137" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M137" s="9" t="s">
+      <c r="M137" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="N137" s="9" t="s">
+      <c r="N137" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O137" s="9" t="s">
+      <c r="O137" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P137" s="9" t="s">
+      <c r="P137" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q137" s="9" t="s">
+      <c r="Q137" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9" t="s">
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="U137" s="9" t="s">
+      <c r="U137" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V137" s="9"/>
+      <c r="V137" s="10"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -8362,23 +8368,23 @@
       <c r="M138" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N138" s="9" t="s">
+      <c r="N138" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O138" s="9" t="s">
+      <c r="O138" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9" t="s">
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="R138" s="9"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9" t="s">
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V138" s="9"/>
+      <c r="V138" s="10"/>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="5" t="s">
@@ -8397,30 +8403,30 @@
       <c r="L139" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="M139" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N139" s="9" t="s">
+      <c r="N139" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O139" s="9" t="s">
+      <c r="O139" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P139" s="9" t="s">
+      <c r="P139" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q139" s="9" t="s">
+      <c r="Q139" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="R139" s="9"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9" t="s">
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="U139" s="9" t="s">
+      <c r="U139" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="V139" s="9" t="s">
+      <c r="V139" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8441,32 +8447,32 @@
       <c r="L140" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M140" s="9" t="s">
+      <c r="M140" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N140" s="9" t="s">
+      <c r="N140" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O140" s="9" t="s">
+      <c r="O140" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P140" s="9" t="s">
+      <c r="P140" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q140" s="9" t="s">
+      <c r="Q140" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="R140" s="9" t="s">
+      <c r="R140" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9" t="s">
+      <c r="S140" s="10"/>
+      <c r="T140" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="U140" s="9" t="s">
+      <c r="U140" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V140" s="9"/>
+      <c r="V140" s="10"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="5" t="s">
@@ -8485,30 +8491,30 @@
       <c r="L141" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M141" s="9" t="s">
+      <c r="M141" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N141" s="9" t="s">
+      <c r="N141" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O141" s="9" t="s">
+      <c r="O141" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P141" s="9" t="s">
+      <c r="P141" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9" t="s">
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9" t="s">
+      <c r="S141" s="10"/>
+      <c r="T141" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="U141" s="9" t="s">
+      <c r="U141" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V141" s="9"/>
+      <c r="V141" s="10"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -8527,30 +8533,30 @@
       <c r="L142" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M142" s="9" t="s">
+      <c r="M142" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N142" s="9" t="s">
+      <c r="N142" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O142" s="9" t="s">
+      <c r="O142" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P142" s="9" t="s">
+      <c r="P142" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9" t="s">
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9" t="s">
+      <c r="S142" s="10"/>
+      <c r="T142" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="U142" s="9" t="s">
+      <c r="U142" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V142" s="9"/>
+      <c r="V142" s="10"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -8569,30 +8575,30 @@
       <c r="L143" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M143" s="9" t="s">
+      <c r="M143" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N143" s="9" t="s">
+      <c r="N143" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O143" s="9" t="s">
+      <c r="O143" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P143" s="9" t="s">
+      <c r="P143" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9" t="s">
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9" t="s">
+      <c r="S143" s="10"/>
+      <c r="T143" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="U143" s="9" t="s">
+      <c r="U143" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V143" s="9"/>
+      <c r="V143" s="10"/>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="5" t="s">
@@ -8611,30 +8617,30 @@
       <c r="L144" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M144" s="9" t="s">
+      <c r="M144" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N144" s="9" t="s">
+      <c r="N144" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O144" s="9" t="s">
+      <c r="O144" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P144" s="9" t="s">
+      <c r="P144" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9" t="s">
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9" t="s">
+      <c r="S144" s="10"/>
+      <c r="T144" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="U144" s="9" t="s">
+      <c r="U144" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V144" s="9"/>
+      <c r="V144" s="10"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="5" t="s">
@@ -8656,19 +8662,19 @@
       <c r="M145" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="N145" s="9" t="s">
+      <c r="N145" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
-      <c r="U145" s="9" t="s">
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
+      <c r="T145" s="10"/>
+      <c r="U145" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="V145" s="9" t="s">
+      <c r="V145" s="10" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8689,26 +8695,26 @@
       <c r="L146" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M146" s="9" t="s">
+      <c r="M146" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N146" s="9" t="s">
+      <c r="N146" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O146" s="9" t="s">
+      <c r="O146" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9" t="s">
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9" t="s">
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
+      <c r="T146" s="10"/>
+      <c r="U146" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="V146" s="9" t="s">
+      <c r="V146" s="10" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8729,28 +8735,28 @@
       <c r="L147" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M147" s="9" t="s">
+      <c r="M147" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N147" s="9" t="s">
+      <c r="N147" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O147" s="9" t="s">
+      <c r="O147" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P147" s="9" t="s">
+      <c r="P147" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q147" s="9" t="s">
+      <c r="Q147" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9" t="s">
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="V147" s="9"/>
+      <c r="V147" s="10"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -8769,30 +8775,30 @@
       <c r="L148" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M148" s="9" t="s">
+      <c r="M148" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N148" s="9" t="s">
+      <c r="N148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O148" s="9" t="s">
+      <c r="O148" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P148" s="9" t="s">
+      <c r="P148" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q148" s="9" t="s">
+      <c r="Q148" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9" t="s">
+      <c r="R148" s="10"/>
+      <c r="S148" s="10"/>
+      <c r="T148" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="U148" s="9" t="s">
+      <c r="U148" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="V148" s="9" t="s">
+      <c r="V148" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8813,32 +8819,32 @@
       <c r="L149" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M149" s="9" t="s">
+      <c r="M149" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N149" s="9" t="s">
+      <c r="N149" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O149" s="9" t="s">
+      <c r="O149" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P149" s="9" t="s">
+      <c r="P149" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="9" t="s">
+      <c r="Q149" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="R149" s="9" t="s">
+      <c r="R149" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="S149" s="9"/>
-      <c r="T149" s="9" t="s">
+      <c r="S149" s="10"/>
+      <c r="T149" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="U149" s="9" t="s">
+      <c r="U149" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V149" s="9"/>
+      <c r="V149" s="10"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="5" t="s">
@@ -8857,30 +8863,30 @@
       <c r="L150" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M150" s="9" t="s">
+      <c r="M150" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N150" s="9" t="s">
+      <c r="N150" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O150" s="9" t="s">
+      <c r="O150" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P150" s="9" t="s">
+      <c r="P150" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="9" t="s">
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="S150" s="9"/>
-      <c r="T150" s="9" t="s">
+      <c r="S150" s="10"/>
+      <c r="T150" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U150" s="9" t="s">
+      <c r="U150" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V150" s="9"/>
+      <c r="V150" s="10"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -8902,19 +8908,19 @@
       <c r="M151" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="N151" s="9" t="s">
+      <c r="N151" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-      <c r="U151" s="9" t="s">
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10"/>
+      <c r="U151" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="V151" s="9" t="s">
+      <c r="V151" s="10" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8935,26 +8941,26 @@
       <c r="L152" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M152" s="9" t="s">
+      <c r="M152" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N152" s="9" t="s">
+      <c r="N152" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O152" s="9" t="s">
+      <c r="O152" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="9" t="s">
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="R152" s="9"/>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="9" t="s">
+      <c r="R152" s="10"/>
+      <c r="S152" s="10"/>
+      <c r="T152" s="10"/>
+      <c r="U152" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V152" s="9"/>
+      <c r="V152" s="10"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -8973,30 +8979,30 @@
       <c r="L153" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="M153" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N153" s="9" t="s">
+      <c r="N153" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O153" s="9" t="s">
+      <c r="O153" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P153" s="9" t="s">
+      <c r="P153" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q153" s="9" t="s">
+      <c r="Q153" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="R153" s="9"/>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9" t="s">
+      <c r="R153" s="10"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="U153" s="9" t="s">
+      <c r="U153" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="V153" s="9" t="s">
+      <c r="V153" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9017,30 +9023,30 @@
       <c r="L154" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M154" s="9" t="s">
+      <c r="M154" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N154" s="9" t="s">
+      <c r="N154" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O154" s="9" t="s">
+      <c r="O154" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P154" s="9" t="s">
+      <c r="P154" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q154" s="9" t="s">
+      <c r="Q154" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="R154" s="9" t="s">
+      <c r="R154" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="S154" s="9"/>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9" t="s">
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="V154" s="9"/>
+      <c r="V154" s="10"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="5" t="s">
@@ -9059,26 +9065,26 @@
       <c r="L155" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M155" s="9" t="s">
+      <c r="M155" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N155" s="9" t="s">
+      <c r="N155" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O155" s="9" t="s">
+      <c r="O155" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="9" t="s">
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="R155" s="9"/>
-      <c r="S155" s="9"/>
-      <c r="T155" s="9"/>
-      <c r="U155" s="9" t="s">
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V155" s="9"/>
+      <c r="V155" s="10"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9097,28 +9103,28 @@
       <c r="L156" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M156" s="9" t="s">
+      <c r="M156" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N156" s="9" t="s">
+      <c r="N156" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O156" s="9" t="s">
+      <c r="O156" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P156" s="9" t="s">
+      <c r="P156" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q156" s="9" t="s">
+      <c r="Q156" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="R156" s="9"/>
-      <c r="S156" s="9"/>
-      <c r="T156" s="9"/>
-      <c r="U156" s="9" t="s">
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="V156" s="9"/>
+      <c r="V156" s="10"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -9137,30 +9143,30 @@
       <c r="L157" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M157" s="9" t="s">
+      <c r="M157" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N157" s="9" t="s">
+      <c r="N157" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O157" s="9" t="s">
+      <c r="O157" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P157" s="9" t="s">
+      <c r="P157" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q157" s="9" t="s">
+      <c r="Q157" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="R157" s="9"/>
-      <c r="S157" s="9"/>
-      <c r="T157" s="9" t="s">
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="U157" s="9" t="s">
+      <c r="U157" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="V157" s="9" t="s">
+      <c r="V157" s="10" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9181,32 +9187,32 @@
       <c r="L158" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M158" s="9" t="s">
+      <c r="M158" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N158" s="9" t="s">
+      <c r="N158" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O158" s="9" t="s">
+      <c r="O158" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P158" s="9" t="s">
+      <c r="P158" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q158" s="9" t="s">
+      <c r="Q158" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="R158" s="9" t="s">
+      <c r="R158" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S158" s="9"/>
-      <c r="T158" s="9" t="s">
+      <c r="S158" s="10"/>
+      <c r="T158" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="U158" s="9" t="s">
+      <c r="U158" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V158" s="9"/>
+      <c r="V158" s="10"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9228,19 +9234,19 @@
       <c r="M159" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="N159" s="9" t="s">
+      <c r="N159" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O159" s="9"/>
-      <c r="P159" s="9"/>
-      <c r="Q159" s="9"/>
-      <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
-      <c r="T159" s="9"/>
-      <c r="U159" s="9" t="s">
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10"/>
+      <c r="R159" s="10"/>
+      <c r="S159" s="10"/>
+      <c r="T159" s="10"/>
+      <c r="U159" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="V159" s="9" t="s">
+      <c r="V159" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9261,26 +9267,26 @@
       <c r="L160" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M160" s="9" t="s">
+      <c r="M160" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N160" s="9" t="s">
+      <c r="N160" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O160" s="9" t="s">
+      <c r="O160" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9" t="s">
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R160" s="9"/>
-      <c r="S160" s="9"/>
-      <c r="T160" s="9"/>
-      <c r="U160" s="9" t="s">
+      <c r="R160" s="10"/>
+      <c r="S160" s="10"/>
+      <c r="T160" s="10"/>
+      <c r="U160" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V160" s="9"/>
+      <c r="V160" s="10"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -9299,30 +9305,30 @@
       <c r="L161" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M161" s="9" t="s">
+      <c r="M161" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N161" s="9" t="s">
+      <c r="N161" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O161" s="9" t="s">
+      <c r="O161" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P161" s="9" t="s">
+      <c r="P161" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q161" s="9" t="s">
+      <c r="Q161" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R161" s="9"/>
-      <c r="S161" s="9"/>
-      <c r="T161" s="9" t="s">
+      <c r="R161" s="10"/>
+      <c r="S161" s="10"/>
+      <c r="T161" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="U161" s="9" t="s">
+      <c r="U161" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="V161" s="9" t="s">
+      <c r="V161" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9343,30 +9349,30 @@
       <c r="L162" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M162" s="9" t="s">
+      <c r="M162" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N162" s="9" t="s">
+      <c r="N162" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O162" s="9" t="s">
+      <c r="O162" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P162" s="9" t="s">
+      <c r="P162" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q162" s="9" t="s">
+      <c r="Q162" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R162" s="9" t="s">
+      <c r="R162" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="S162" s="9"/>
-      <c r="T162" s="9"/>
-      <c r="U162" s="9" t="s">
+      <c r="S162" s="10"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="V162" s="9"/>
+      <c r="V162" s="10"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -9385,26 +9391,26 @@
       <c r="L163" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M163" s="9" t="s">
+      <c r="M163" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N163" s="9" t="s">
+      <c r="N163" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O163" s="9" t="s">
+      <c r="O163" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9" t="s">
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
-      <c r="T163" s="9"/>
-      <c r="U163" s="9" t="s">
+      <c r="R163" s="10"/>
+      <c r="S163" s="10"/>
+      <c r="T163" s="10"/>
+      <c r="U163" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V163" s="9"/>
+      <c r="V163" s="10"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -9423,28 +9429,28 @@
       <c r="L164" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M164" s="9" t="s">
+      <c r="M164" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N164" s="9" t="s">
+      <c r="N164" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O164" s="9" t="s">
+      <c r="O164" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P164" s="9" t="s">
+      <c r="P164" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q164" s="9" t="s">
+      <c r="Q164" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R164" s="9"/>
-      <c r="S164" s="9"/>
-      <c r="T164" s="9"/>
-      <c r="U164" s="9" t="s">
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="V164" s="9"/>
+      <c r="V164" s="10"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="5" t="s">
@@ -9463,30 +9469,30 @@
       <c r="L165" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M165" s="9" t="s">
+      <c r="M165" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N165" s="9" t="s">
+      <c r="N165" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O165" s="9" t="s">
+      <c r="O165" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P165" s="9" t="s">
+      <c r="P165" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q165" s="9" t="s">
+      <c r="Q165" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R165" s="9"/>
-      <c r="S165" s="9"/>
-      <c r="T165" s="9" t="s">
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="U165" s="9" t="s">
+      <c r="U165" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="V165" s="9" t="s">
+      <c r="V165" s="10" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9507,32 +9513,32 @@
       <c r="L166" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M166" s="9" t="s">
+      <c r="M166" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N166" s="9" t="s">
+      <c r="N166" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O166" s="9" t="s">
+      <c r="O166" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P166" s="9" t="s">
+      <c r="P166" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q166" s="9" t="s">
+      <c r="Q166" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R166" s="9" t="s">
+      <c r="R166" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S166" s="9"/>
-      <c r="T166" s="9" t="s">
+      <c r="S166" s="10"/>
+      <c r="T166" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="U166" s="9" t="s">
+      <c r="U166" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V166" s="9"/>
+      <c r="V166" s="10"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -9554,19 +9560,19 @@
       <c r="M167" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="N167" s="9" t="s">
+      <c r="N167" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O167" s="9"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="9"/>
-      <c r="S167" s="9"/>
-      <c r="T167" s="9"/>
-      <c r="U167" s="9" t="s">
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+      <c r="R167" s="10"/>
+      <c r="S167" s="10"/>
+      <c r="T167" s="10"/>
+      <c r="U167" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="V167" s="9" t="s">
+      <c r="V167" s="10" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9587,26 +9593,26 @@
       <c r="L168" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M168" s="9" t="s">
+      <c r="M168" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N168" s="9" t="s">
+      <c r="N168" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O168" s="9" t="s">
+      <c r="O168" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P168" s="9"/>
-      <c r="Q168" s="9" t="s">
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R168" s="9"/>
-      <c r="S168" s="9"/>
-      <c r="T168" s="9"/>
-      <c r="U168" s="9" t="s">
+      <c r="R168" s="10"/>
+      <c r="S168" s="10"/>
+      <c r="T168" s="10"/>
+      <c r="U168" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V168" s="9"/>
+      <c r="V168" s="10"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -9625,30 +9631,30 @@
       <c r="L169" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M169" s="9" t="s">
+      <c r="M169" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N169" s="9" t="s">
+      <c r="N169" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O169" s="9" t="s">
+      <c r="O169" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P169" s="9" t="s">
+      <c r="P169" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q169" s="9" t="s">
+      <c r="Q169" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R169" s="9"/>
-      <c r="S169" s="9"/>
-      <c r="T169" s="9" t="s">
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="U169" s="9" t="s">
+      <c r="U169" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="V169" s="9" t="s">
+      <c r="V169" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9669,30 +9675,30 @@
       <c r="L170" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M170" s="9" t="s">
+      <c r="M170" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N170" s="9" t="s">
+      <c r="N170" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O170" s="9" t="s">
+      <c r="O170" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P170" s="9" t="s">
+      <c r="P170" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q170" s="9" t="s">
+      <c r="Q170" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R170" s="9" t="s">
+      <c r="R170" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="9" t="s">
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="V170" s="9"/>
+      <c r="V170" s="10"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -9711,26 +9717,26 @@
       <c r="L171" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M171" s="9" t="s">
+      <c r="M171" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N171" s="9" t="s">
+      <c r="N171" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O171" s="9" t="s">
+      <c r="O171" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P171" s="9"/>
-      <c r="Q171" s="9" t="s">
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R171" s="9"/>
-      <c r="S171" s="9"/>
-      <c r="T171" s="9"/>
-      <c r="U171" s="9" t="s">
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="10"/>
+      <c r="U171" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="V171" s="9"/>
+      <c r="V171" s="10"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -9749,28 +9755,28 @@
       <c r="L172" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M172" s="9" t="s">
+      <c r="M172" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N172" s="9" t="s">
+      <c r="N172" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O172" s="9" t="s">
+      <c r="O172" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P172" s="9" t="s">
+      <c r="P172" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q172" s="9" t="s">
+      <c r="Q172" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R172" s="9"/>
-      <c r="S172" s="9"/>
-      <c r="T172" s="9"/>
-      <c r="U172" s="9" t="s">
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
+      <c r="T172" s="10"/>
+      <c r="U172" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="V172" s="9"/>
+      <c r="V172" s="10"/>
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="5" t="s">
@@ -9789,30 +9795,30 @@
       <c r="L173" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M173" s="9" t="s">
+      <c r="M173" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N173" s="9" t="s">
+      <c r="N173" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O173" s="9" t="s">
+      <c r="O173" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P173" s="9" t="s">
+      <c r="P173" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q173" s="9" t="s">
+      <c r="Q173" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R173" s="9"/>
-      <c r="S173" s="9"/>
-      <c r="T173" s="9" t="s">
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
+      <c r="T173" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="U173" s="9" t="s">
+      <c r="U173" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="V173" s="9" t="s">
+      <c r="V173" s="10" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9833,76 +9839,76 @@
       <c r="L174" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M174" s="9" t="s">
+      <c r="M174" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N174" s="9" t="s">
+      <c r="N174" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O174" s="9" t="s">
+      <c r="O174" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P174" s="9" t="s">
+      <c r="P174" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q174" s="9" t="s">
+      <c r="Q174" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R174" s="9" t="s">
+      <c r="R174" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S174" s="9"/>
-      <c r="T174" s="9" t="s">
+      <c r="S174" s="10"/>
+      <c r="T174" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="U174" s="9" t="s">
+      <c r="U174" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="V174" s="9"/>
+      <c r="V174" s="10"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5" t="s">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K175" s="5"/>
+      <c r="K175" s="2"/>
       <c r="L175" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M175" s="5" t="s">
+      <c r="M175" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="5"/>
-      <c r="O175" s="5" t="s">
+      <c r="N175" s="2"/>
+      <c r="O175" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P175" s="5"/>
+      <c r="P175" s="2"/>
       <c r="Q175" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -9957,48 +9963,48 @@
       <c r="V176" s="5"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5" t="s">
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K177" s="5"/>
+      <c r="K177" s="2"/>
       <c r="L177" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M177" s="5" t="s">
+      <c r="M177" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N177" s="5"/>
-      <c r="O177" s="5" t="s">
+      <c r="N177" s="2"/>
+      <c r="O177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P177" s="5"/>
+      <c r="P177" s="2"/>
       <c r="Q177" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
